--- a/副配置表.xlsx
+++ b/副配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\游戏设计方案\秽土\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E21E383-1D8A-4B66-8107-A2115DA963E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7C7FD8-0249-4FAA-965B-F3D529ACFD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" tabRatio="802" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3532" yWindow="2242" windowWidth="19562" windowHeight="10161" tabRatio="802" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方法" sheetId="39" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="288">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,10 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获得基础强化,有{参数}%几率感染秽病</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1053,13 +1049,6 @@
   </si>
   <si>
     <t>目标生命值低于指定百分比时,伤害必定击杀单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对指定单位使用,将获得印有其技能的书籍,优先主动技能
-必得未拥有技能
-使用需要消耗行动力
-需要消耗一张纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1269,6 +1258,32 @@
   <si>
     <t>结束后进入黑夜
 有{参数}%概率晴天霹雳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对指定单位使用,将获得印有其技能的书籍,优先主动技能,优先未拥有技能
+需要消耗行动力
+需要消耗一张纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标施加"尸变状态({参数})"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1736,16 +1751,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>61</v>
@@ -1765,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>61</v>
@@ -1776,16 +1791,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>61</v>
@@ -1796,13 +1811,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="85.6">
@@ -1810,13 +1825,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1864,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.55">
@@ -1875,10 +1890,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="42.8">
@@ -1886,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.55">
@@ -1897,10 +1912,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.55">
@@ -1908,10 +1923,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1919,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1950,16 +1965,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1969,206 +1984,206 @@
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.55">
       <c r="C15" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.55">
       <c r="B16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="28.55">
       <c r="B17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="28.55">
       <c r="C19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="C21" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="28.55">
       <c r="D23" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="28.55">
       <c r="D24" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BD8FEA-F08D-486C-9EB0-0E07F9768CD4}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +2225,7 @@
         <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2244,13 +2259,13 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H3" s="1">
         <v>5</v>
@@ -2270,7 +2285,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>121</v>
@@ -2296,7 +2311,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -2319,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>121</v>
@@ -2342,10 +2357,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H7" s="4">
         <v>50</v>
@@ -2365,13 +2380,13 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>123</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -2388,7 +2403,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>113</v>
@@ -2408,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>114</v>
@@ -2422,19 +2437,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.25">
@@ -2448,10 +2463,10 @@
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H12" s="4">
         <v>10</v>
@@ -2466,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CF73A2-4BC6-4629-B935-29AAD6B802A4}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3"/>
@@ -2491,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.65">
@@ -2508,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -2524,57 +2539,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2585,19 +2582,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
@@ -2605,21 +2602,61 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2631,26 +2668,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E874AEB-8F79-4BEB-B6C9-BE914C17366E}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.65"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="3"/>
-    <col min="5" max="5" width="10.625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="3"/>
-    <col min="8" max="8" width="84.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.65">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2670,7 +2709,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.65">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2684,12 +2723,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15.65">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>89</v>
@@ -2700,8 +2739,8 @@
       <c r="E3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
+      <c r="F3" s="1">
+        <v>-1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -2716,7 +2755,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.65">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2727,16 +2766,16 @@
         <v>87</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
+      <c r="F4" s="1">
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>116</v>
@@ -2748,7 +2787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15.65">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2764,8 +2803,8 @@
       <c r="E5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
+      <c r="F5" s="1">
+        <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -2777,12 +2816,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.65">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -2790,77 +2829,77 @@
       <c r="E6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
+      <c r="F6" s="1">
+        <v>-1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="62.5">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15.65">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46.9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15.65">
+        <v>155</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2868,54 +2907,51 @@
       <c r="E9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
+      <c r="F9" s="1">
+        <v>-1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>4</v>
+      <c r="F10" s="1">
+        <v>-1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15.65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>262</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -2923,68 +2959,74 @@
       <c r="E11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
+      <c r="F11" s="1">
+        <v>-1</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="I11" s="1">
-        <v>20</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15.65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15.65">
+        <v>118</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15.65">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -2993,98 +3035,95 @@
         <v>128</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.65">
+        <v>120</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="15.65">
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.65">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="D17" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="15.65">
+      <c r="H17" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="D18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="15.65">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
@@ -3093,7 +3132,7 @@
         <v>128</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -3102,24 +3141,50 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="15.65">
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>215</v>
+        <v>269</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3169,13 +3234,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>61</v>
@@ -3220,13 +3285,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>61</v>
@@ -3301,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3327,7 +3392,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>
@@ -3408,7 +3473,7 @@
         <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -3428,7 +3493,7 @@
         <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5">
         <v>20</v>
@@ -3483,28 +3548,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3517,19 +3582,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="8">
         <v>3104</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>4</v>
@@ -3537,14 +3602,14 @@
     </row>
     <row r="4" spans="1:8" ht="85.6">
       <c r="C4" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3622,19 +3687,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="8">
         <v>118395</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -3667,7 +3732,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C26" s="8">
         <v>119109</v>
@@ -3675,21 +3740,21 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="42.8">
       <c r="B28" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.65">
@@ -3772,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -3804,7 +3869,7 @@
         <v>69</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42.8">
@@ -3835,7 +3900,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
@@ -3858,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>61</v>
@@ -3918,7 +3983,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3926,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
@@ -3939,24 +4004,24 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3">
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="57.1">
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
